--- a/sapp/static/docs/userDetails.xlsx
+++ b/sapp/static/docs/userDetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/ishdeepsingh_cmail_carleton_ca/Documents/work details/Projects/Self assessment 4th year project/resources/sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/ishdeepsingh_cmail_carleton_ca/Documents/work details/Projects/Self assessment 4th year project/resources/testusersinfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC10484DE19B714A5BDE58E0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF7C0BD8-0FA3-4DA3-8F24-01A9B07F046D}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="11_F25DC773A252ABDACC10484DE19B714A5BDE58E0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B1324FA-D62B-4775-A80E-DD362CC07A02}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21210" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>userId</t>
   </si>
@@ -33,21 +33,12 @@
     <t>email</t>
   </si>
   <si>
-    <t>Singh</t>
-  </si>
-  <si>
     <t>lastName</t>
   </si>
   <si>
     <t>firstName</t>
   </si>
   <si>
-    <t>ishdeep.bajaj@gmail.com</t>
-  </si>
-  <si>
-    <t>McConnell</t>
-  </si>
-  <si>
     <t>Jenna</t>
   </si>
   <si>
@@ -63,25 +54,97 @@
     <t>Jennifer</t>
   </si>
   <si>
-    <t>Hebert</t>
-  </si>
-  <si>
-    <t>Darlene</t>
-  </si>
-  <si>
-    <t>Ishdeep</t>
-  </si>
-  <si>
-    <t>jenna@sce.com</t>
-  </si>
-  <si>
-    <t>saundra@sce.com</t>
-  </si>
-  <si>
-    <t>jennifer@sce.com</t>
-  </si>
-  <si>
-    <t>darlene@sce.com</t>
+    <t>YvanLabiche@cunet.carleton.ca</t>
+  </si>
+  <si>
+    <t>Yvan</t>
+  </si>
+  <si>
+    <t>Labiche</t>
+  </si>
+  <si>
+    <t>jenna@sce.carleton.ca</t>
+  </si>
+  <si>
+    <t>jenniferpoll@cunet.carleton.ca</t>
+  </si>
+  <si>
+    <t>jbuburuz@sce.carleton.ca</t>
+  </si>
+  <si>
+    <t>druss@sce.carleton.ca</t>
+  </si>
+  <si>
+    <t>darenruss@cunet.carleton.ca</t>
+  </si>
+  <si>
+    <t>kkchiv@sce.carleton.ca</t>
+  </si>
+  <si>
+    <t>saundra@sce.carleton.ca</t>
+  </si>
+  <si>
+    <t>erica@sce.carleton.ca</t>
+  </si>
+  <si>
+    <t>jennamcconnell@cunet.carleton.ca</t>
+  </si>
+  <si>
+    <t>jerrybuburuz@cunet.carleton.ca</t>
+  </si>
+  <si>
+    <t>mcconnell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerry </t>
+  </si>
+  <si>
+    <t>Erica</t>
+  </si>
+  <si>
+    <t>Buburuz</t>
+  </si>
+  <si>
+    <t>Russ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daren </t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kong </t>
+  </si>
+  <si>
+    <t>Chiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singh </t>
+  </si>
+  <si>
+    <t>Ish</t>
+  </si>
+  <si>
+    <t>ishdeepsingh@cunet.carleton.ca</t>
+  </si>
+  <si>
+    <t>Mcconnell</t>
+  </si>
+  <si>
+    <t>saundrawarmington@cunet.carleton.ca</t>
+  </si>
+  <si>
+    <t>EricaEast@cuent.carleton.ca</t>
+  </si>
+  <si>
+    <t>khichiv@cuent.carleton.ca</t>
+  </si>
+  <si>
+    <t>test@sce.carleton.ca</t>
+  </si>
+  <si>
+    <t>jennifer@sce.carleton.ca</t>
   </si>
 </sst>
 </file>
@@ -125,32 +188,25 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -178,33 +234,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -217,7 +247,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -225,9 +255,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -510,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +552,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -528,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -541,81 +573,260 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{8DC208E9-E607-4915-AAA3-08A50A25FCC5}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{10A181E3-6C7E-4953-9428-EBB825C36736}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{A163837B-DACE-442C-B569-AB49BB128A7F}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{9C7EEF06-1089-492B-89B9-99E693C5FBEC}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{2D8BF38E-844E-4399-BF6C-A8F2940CBF2E}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{8B49C401-BADB-407B-BD8D-2E7741382ED8}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{217CB9EF-9764-4990-9063-F437FADC06B8}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{06FFFBA2-40BB-47C6-B693-CD7119421D14}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{39A37B70-1B86-43D0-A1D4-12486436362C}"/>
+    <hyperlink ref="D5" r:id="rId5" display="mailto:saundra@sce.carleton.ca" xr:uid="{A967A603-35FD-4EE1-A2E8-76180872DB1B}"/>
+    <hyperlink ref="D6" r:id="rId6" display="mailto:erica@sce.carleton.ca" xr:uid="{3DA80CF6-14E2-428A-9FB8-613209E8478B}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{B798ED8E-321B-47D0-8075-491254F94DBE}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{0BCD00F8-1CB0-4AD3-B2D2-DF57F54998A6}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{DBAE603C-5EB8-4FF8-A324-A543CBD58A14}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{63C362FA-4824-47C0-B176-92DAFF51A10A}"/>
+    <hyperlink ref="D18" r:id="rId11" xr:uid="{AC90D23B-86FF-4C92-A00C-FF2DFA45A7EC}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{3C964869-1E05-41A5-8D67-6C9A56723097}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{1B14570C-D0A7-4D7E-9092-FB88EA7B9A52}"/>
+    <hyperlink ref="D14" r:id="rId14" xr:uid="{604D5CEE-A4B4-4F5A-9987-57CDFF7E100C}"/>
+    <hyperlink ref="D2" r:id="rId15" xr:uid="{DA6787F5-4104-4E3D-B95C-70A1B4566B16}"/>
+    <hyperlink ref="D4" r:id="rId16" xr:uid="{17633213-5132-40F5-98CB-25F9483ACACC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="599" r:id="rId6"/>
+  <pageSetup orientation="portrait" verticalDpi="599" r:id="rId17"/>
 </worksheet>
 </file>
--- a/sapp/static/docs/userDetails.xlsx
+++ b/sapp/static/docs/userDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/ishdeepsingh_cmail_carleton_ca/Documents/work details/Projects/Self assessment 4th year project/resources/testusersinfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_F25DC773A252ABDACC10484DE19B714A5BDE58E0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B1324FA-D62B-4775-A80E-DD362CC07A02}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_F25DC773A252ABDACC10484DE19B714A5BDE58E0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88DA1FE5-E432-4D14-A234-27095AA38EB7}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21210" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="2400" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>userId</t>
   </si>
@@ -63,39 +63,18 @@
     <t>Labiche</t>
   </si>
   <si>
-    <t>jenna@sce.carleton.ca</t>
-  </si>
-  <si>
     <t>jenniferpoll@cunet.carleton.ca</t>
   </si>
   <si>
-    <t>jbuburuz@sce.carleton.ca</t>
-  </si>
-  <si>
-    <t>druss@sce.carleton.ca</t>
-  </si>
-  <si>
     <t>darenruss@cunet.carleton.ca</t>
   </si>
   <si>
-    <t>kkchiv@sce.carleton.ca</t>
-  </si>
-  <si>
-    <t>saundra@sce.carleton.ca</t>
-  </si>
-  <si>
-    <t>erica@sce.carleton.ca</t>
-  </si>
-  <si>
     <t>jennamcconnell@cunet.carleton.ca</t>
   </si>
   <si>
     <t>jerrybuburuz@cunet.carleton.ca</t>
   </si>
   <si>
-    <t>mcconnell</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jerry </t>
   </si>
   <si>
@@ -139,12 +118,6 @@
   </si>
   <si>
     <t>khichiv@cuent.carleton.ca</t>
-  </si>
-  <si>
-    <t>test@sce.carleton.ca</t>
-  </si>
-  <si>
-    <t>jennifer@sce.carleton.ca</t>
   </si>
 </sst>
 </file>
@@ -188,21 +161,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,44 +188,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -541,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,8 +512,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" s="5">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -579,27 +521,27 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" s="5">
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -608,12 +550,12 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
@@ -621,212 +563,92 @@
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{8B49C401-BADB-407B-BD8D-2E7741382ED8}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{217CB9EF-9764-4990-9063-F437FADC06B8}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{06FFFBA2-40BB-47C6-B693-CD7119421D14}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{39A37B70-1B86-43D0-A1D4-12486436362C}"/>
-    <hyperlink ref="D5" r:id="rId5" display="mailto:saundra@sce.carleton.ca" xr:uid="{A967A603-35FD-4EE1-A2E8-76180872DB1B}"/>
-    <hyperlink ref="D6" r:id="rId6" display="mailto:erica@sce.carleton.ca" xr:uid="{3DA80CF6-14E2-428A-9FB8-613209E8478B}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{B798ED8E-321B-47D0-8075-491254F94DBE}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{0BCD00F8-1CB0-4AD3-B2D2-DF57F54998A6}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{DBAE603C-5EB8-4FF8-A324-A543CBD58A14}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{63C362FA-4824-47C0-B176-92DAFF51A10A}"/>
-    <hyperlink ref="D18" r:id="rId11" xr:uid="{AC90D23B-86FF-4C92-A00C-FF2DFA45A7EC}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{3C964869-1E05-41A5-8D67-6C9A56723097}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{1B14570C-D0A7-4D7E-9092-FB88EA7B9A52}"/>
-    <hyperlink ref="D14" r:id="rId14" xr:uid="{604D5CEE-A4B4-4F5A-9987-57CDFF7E100C}"/>
-    <hyperlink ref="D2" r:id="rId15" xr:uid="{DA6787F5-4104-4E3D-B95C-70A1B4566B16}"/>
-    <hyperlink ref="D4" r:id="rId16" xr:uid="{17633213-5132-40F5-98CB-25F9483ACACC}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{B798ED8E-321B-47D0-8075-491254F94DBE}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{0BCD00F8-1CB0-4AD3-B2D2-DF57F54998A6}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{DBAE603C-5EB8-4FF8-A324-A543CBD58A14}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{63C362FA-4824-47C0-B176-92DAFF51A10A}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{AC90D23B-86FF-4C92-A00C-FF2DFA45A7EC}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{3C964869-1E05-41A5-8D67-6C9A56723097}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{1B14570C-D0A7-4D7E-9092-FB88EA7B9A52}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{604D5CEE-A4B4-4F5A-9987-57CDFF7E100C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="599" r:id="rId17"/>
+  <pageSetup orientation="portrait" verticalDpi="599" r:id="rId9"/>
 </worksheet>
 </file>